--- a/ETLSSIS/ExtractedFilesPath/new_customer_data.xlsx
+++ b/ETLSSIS/ExtractedFilesPath/new_customer_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bootcamp\AllHomework\SSIS\ETLSSIS\ExtractedFilesPath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bootcamp\AllHomework\SSIS\ETLSSIS\LoadFilePath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AB5A5B-7D27-476C-93B3-6B3AC5500EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04659C63-1DCC-4C7E-9BB3-677B061D4B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7980" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="143">
   <si>
     <t>CustomerID</t>
   </si>
@@ -241,6 +241,9 @@
     <t>Untied Kingdom</t>
   </si>
   <si>
+    <t>CH62 5DX</t>
+  </si>
+  <si>
     <t>Misty</t>
   </si>
   <si>
@@ -446,12 +449,6 @@
   </si>
   <si>
     <t>790-592-0174</t>
-  </si>
-  <si>
-    <t>02901</t>
-  </si>
-  <si>
-    <t>H62 5DX</t>
   </si>
 </sst>
 </file>
@@ -1296,10 +1293,13 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1353,7 +1353,7 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
@@ -1566,7 +1566,7 @@
         <v>72</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s">
         <v>31</v>
@@ -1583,37 +1583,37 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6">
         <v>1111</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -1636,37 +1636,37 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
         <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7">
         <v>1112</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q7" t="s">
         <v>30</v>
@@ -1689,43 +1689,43 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
         <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8">
         <v>1113</v>
       </c>
       <c r="M8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S8" t="s">
         <v>31</v>
@@ -1742,37 +1742,37 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L9">
         <v>1114</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q9" t="s">
         <v>30</v>
@@ -1795,34 +1795,34 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L10">
         <v>1115</v>
       </c>
       <c r="M10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P10" t="s">
         <v>42</v>
@@ -1848,43 +1848,43 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L11">
         <v>1116</v>
       </c>
       <c r="M11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>142</v>
+      <c r="R11" s="1">
+        <v>2901</v>
       </c>
       <c r="S11" t="s">
         <v>31</v>
@@ -1901,13 +1901,13 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
@@ -1916,10 +1916,10 @@
         <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L12">
         <v>1117</v>
@@ -1954,34 +1954,34 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I13" t="s">
         <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L13">
         <v>1118</v>
       </c>
       <c r="M13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
@@ -2007,13 +2007,13 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
         <v>46</v>
@@ -2022,10 +2022,10 @@
         <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L14">
         <v>1119</v>
